--- a/templates/dataplant/3ASY04_Genomics.xlsx
+++ b/templates/dataplant/3ASY04_Genomics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3795F94-6C2E-4D6B-B188-30FCE3C25D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F7ED0A-652F-46E5-9B0D-A0CDC1705305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6165" yWindow="2340" windowWidth="22785" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY04_Genomics" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="183">
   <si>
     <t>Source Name</t>
   </si>
@@ -674,6 +674,9 @@
   </si>
   <si>
     <t>DataPLANT</t>
+  </si>
+  <si>
+    <t>Raw Data File</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,12 +708,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1029,7 +1026,7 @@
     <tableColumn id="46" xr3:uid="{CCD853D2-EC9C-4E0A-8C7E-6777AB60CC13}" name="Parameter [Read length]" dataDxfId="3"/>
     <tableColumn id="47" xr3:uid="{26DF8DAC-79A8-44E1-83C4-24E1E40A0BD9}" name="Term Source REF (NFDI4PSO:0000058)" dataDxfId="2"/>
     <tableColumn id="48" xr3:uid="{D131D44C-A924-4874-88D0-DB9855B0EF01}" name="Term Accession Number (NFDI4PSO:0000058)" dataDxfId="1"/>
-    <tableColumn id="49" xr3:uid="{79AFE048-81E4-4B64-90FE-F625F5A76A1D}" name="Data File Name" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{5C2F4335-27F7-48F4-B1A6-2D3D05A33A4C}" name="Raw Data File" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1333,7 +1330,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="657" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="511" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="612" row="2">
@@ -1366,58 +1363,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AS2" sqref="AS2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="42" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="31" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.140625" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="57" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="34" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="41.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="41.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="47" max="47" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
@@ -1563,7 +1562,7 @@
         <v>46</v>
       </c>
       <c r="AV1" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
@@ -1673,7 +1672,7 @@
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
+      <c r="AV2" s="14"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
@@ -1754,7 +1753,7 @@
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
+      <c r="AV3" s="14"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
@@ -1826,7 +1825,7 @@
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
+      <c r="AV4" s="14"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
@@ -1865,7 +1864,7 @@
       <c r="AS5" s="1"/>
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
+      <c r="AV5" s="14"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
@@ -1904,7 +1903,7 @@
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
+      <c r="AV6" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1918,7 +1917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB16AD-341F-4BC5-B464-1FD6D565AEE8}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/templates/dataplant/3ASY04_Genomics.xlsx
+++ b/templates/dataplant/3ASY04_Genomics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\sciebo - Eggels, Stella (s.eggels@fz-juelich.de)@fz-juelich.sciebo.de\SE\DataPLANT\ARCs und SWATE\ersatz von nfdi4pso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F7ED0A-652F-46E5-9B0D-A0CDC1705305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CF0541-60D1-44A1-8262-E0F3C06F096B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="2340" windowWidth="22785" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-96" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY04_Genomics" sheetId="1" r:id="rId1"/>
@@ -51,75 +51,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3B6634BC-4C03-40B5-960B-492396F808BF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=9ef58c21-e0b8-4ab9-9728-96d06037c7c8</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{A01A706D-F1CB-447E-A425-DE280548583D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{2F2804BF-74D8-4379-BD42-1EE12A603307}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{1221C9D7-056F-4E73-B2C0-1B69281A8F18}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{9BD0C362-EC2A-4065-9471-0B79E9BD3CE5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{D9E19A51-82E4-44A1-A27B-CFBA3AE6D51C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{D3EBD44C-886B-41F8-9F03-43B4B5002A94}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{5F4CCF44-2FA9-4BF3-8222-AA5ACFCD8494}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{6CB4F23F-F8DB-4C9F-8B95-A048DAF9AB7C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="195">
   <si>
     <t>Source Name</t>
   </si>
@@ -136,141 +136,48 @@
     <t>Parameter [BioSample Accession Number]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000078)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000078)</t>
-  </si>
-  <si>
     <t>Parameter [Library strategy]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000035)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000035)</t>
-  </si>
-  <si>
     <t>Parameter [Library source]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000055)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000055)</t>
-  </si>
-  <si>
     <t>Parameter [Library Selection]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000036)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000036)</t>
-  </si>
-  <si>
     <t>Parameter [Library layout]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000015)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000015)</t>
-  </si>
-  <si>
     <t>Parameter [Library preparation kit]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000037)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000037)</t>
-  </si>
-  <si>
     <t>Parameter [Library preparation kit version]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000038)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000038)</t>
-  </si>
-  <si>
     <t>Parameter [Adapter sequence]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000039)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000039)</t>
-  </si>
-  <si>
     <t>Parameter [Library DNA amount]</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000056)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000056)</t>
-  </si>
-  <si>
     <t>Parameter [Next generation sequencing platform]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000057)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000057)</t>
-  </si>
-  <si>
     <t>Parameter [Next generation sequencing instrument model]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000040)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000040)</t>
-  </si>
-  <si>
     <t>Parameter [Base-calling Software]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000017)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000017)</t>
-  </si>
-  <si>
     <t>Parameter [Base-calling Software Version]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000018)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000018)</t>
-  </si>
-  <si>
     <t>Parameter [Library strand]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000020)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000020)</t>
-  </si>
-  <si>
     <t>Parameter [Read length]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000058)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000058)</t>
-  </si>
-  <si>
     <t>Data File Name</t>
   </si>
   <si>
@@ -421,84 +328,9 @@
     <t>Sample Name</t>
   </si>
   <si>
-    <t>NFDI4PSO:0000078</t>
-  </si>
-  <si>
     <t>NFDI4PSO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000078</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000035</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000035</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000055</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000055</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000036</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000036</t>
-  </si>
-  <si>
-    <t>user-specific</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000037</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000037</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000038</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000038</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000039</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000039</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000056</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000056</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000057</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000057</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000040</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000040</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000017</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000017</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000018</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000018</t>
-  </si>
-  <si>
     <t>Parameter [Base-calling Software Parameters]</t>
   </si>
   <si>
@@ -508,18 +340,6 @@
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000019</t>
   </si>
   <si>
-    <t>NFDI4PSO:0000020</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000020</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000058</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000058</t>
-  </si>
-  <si>
     <t>Parameter [Raw data file format]</t>
   </si>
   <si>
@@ -640,27 +460,9 @@
     <t>Forward</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000009</t>
-  </si>
-  <si>
     <t>paired-end</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000087</t>
-  </si>
-  <si>
-    <t>microgram</t>
-  </si>
-  <si>
-    <t>UO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
-  </si>
-  <si>
-    <t>1.1.6</t>
-  </si>
-  <si>
     <t>Authors ORCID</t>
   </si>
   <si>
@@ -677,6 +479,240 @@
   </si>
   <si>
     <t>Raw Data File</t>
+  </si>
+  <si>
+    <t>Term Source REF (NCIT:C175889)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (NCIT:C175889)</t>
+  </si>
+  <si>
+    <t>Parameter [library strategy]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000035)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000035)</t>
+  </si>
+  <si>
+    <t>Parameter [library source]</t>
+  </si>
+  <si>
+    <t>Term Source REF (GENEPIO:0001965)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (GENEPIO:0001965)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0001965</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_0000035</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C175889</t>
+  </si>
+  <si>
+    <t>Parameter [library selection]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000036)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000036)</t>
+  </si>
+  <si>
+    <t>Parameter [library layout]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000015)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000015)</t>
+  </si>
+  <si>
+    <t>Parameter [library preparation kit]</t>
+  </si>
+  <si>
+    <t>Term Source REF (GENEPIO:0000085)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (GENEPIO:0000085)</t>
+  </si>
+  <si>
+    <t>Parameter [library preparation kit version]</t>
+  </si>
+  <si>
+    <t>Term Source REF (GENEPIO:0000149)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (GENEPIO:0000149)</t>
+  </si>
+  <si>
+    <t>Parameter [adapter sequence]</t>
+  </si>
+  <si>
+    <t>Term Source REF (GENEPIO:0000083)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (GENEPIO:0000083)</t>
+  </si>
+  <si>
+    <t>Parameter [library DNA amount]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000056)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000056)</t>
+  </si>
+  <si>
+    <t>Parameter [next generation sequencing platform]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000057)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000057)</t>
+  </si>
+  <si>
+    <t>Parameter [next generation sequencing instrument model]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000040)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000040)</t>
+  </si>
+  <si>
+    <t>Parameter [base-calling software]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000017)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000017)</t>
+  </si>
+  <si>
+    <t>Parameter [base-calling software version]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000018)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000018)</t>
+  </si>
+  <si>
+    <t>Parameter [library strand]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000020)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000020)</t>
+  </si>
+  <si>
+    <t>Parameter [read length]</t>
+  </si>
+  <si>
+    <t>Term Source REF (GENEPIO:0000076)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (GENEPIO:0000076)</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>DPBO</t>
+  </si>
+  <si>
+    <t>GENEPIO</t>
+  </si>
+  <si>
+    <t>NCIT:C175889</t>
+  </si>
+  <si>
+    <t>DPBO:0000035</t>
+  </si>
+  <si>
+    <t>GENEPIO:0001965</t>
+  </si>
+  <si>
+    <t>DPBO:0000036</t>
+  </si>
+  <si>
+    <t>DPBO:0000015</t>
+  </si>
+  <si>
+    <t>GENEPIO:0000085</t>
+  </si>
+  <si>
+    <t>GENEPIO:0000149</t>
+  </si>
+  <si>
+    <t>GENEPIO:0000083</t>
+  </si>
+  <si>
+    <t>DPBO:0000056</t>
+  </si>
+  <si>
+    <t>DPBO:0000057</t>
+  </si>
+  <si>
+    <t>DPBO:0000040</t>
+  </si>
+  <si>
+    <t>DPBO:0000017</t>
+  </si>
+  <si>
+    <t>DPBO:0000018</t>
+  </si>
+  <si>
+    <t>DPBO:0000020</t>
+  </si>
+  <si>
+    <t>GENEPIO:0000076</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0000076</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_0000020</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_0000018</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_0000017</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_0000040</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_0000057</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_0000056</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0000083</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0000149</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0000085</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_0000015</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_0000036</t>
   </si>
 </sst>
 </file>
@@ -686,7 +722,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,6 +741,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -836,11 +880,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -880,77 +925,147 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{0FE8859D-C2F0-4295-9985-C9893250EBDC}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+  <dxfs count="45">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
@@ -976,57 +1091,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0C0EA5A-A21C-49F7-8DC9-9A178CCDF2DE}" name="annotationTableTameZebra23" displayName="annotationTableTameZebra23" ref="A1:AV6" totalsRowShown="0">
-  <autoFilter ref="A1:AV6" xr:uid="{A0C0EA5A-A21C-49F7-8DC9-9A178CCDF2DE}"/>
-  <tableColumns count="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0C0EA5A-A21C-49F7-8DC9-9A178CCDF2DE}" name="annotationTableTameZebra23" displayName="annotationTableTameZebra23" ref="A1:AU6" totalsRowShown="0">
+  <autoFilter ref="A1:AU6" xr:uid="{A0C0EA5A-A21C-49F7-8DC9-9A178CCDF2DE}"/>
+  <tableColumns count="47">
     <tableColumn id="1" xr3:uid="{A3E10627-AC92-48CC-BD94-286CB920EDC2}" name="Source Name"/>
-    <tableColumn id="3" xr3:uid="{A71F33D0-04BB-4221-80D2-675954198586}" name="Parameter [BioSample Accession Number]"/>
-    <tableColumn id="4" xr3:uid="{8AACAB30-61CB-47CC-888F-118932F50683}" name="Term Source REF (NFDI4PSO:0000078)"/>
-    <tableColumn id="5" xr3:uid="{7C8C78ED-D664-4130-8D79-FE08A12271C4}" name="Term Accession Number (NFDI4PSO:0000078)"/>
-    <tableColumn id="6" xr3:uid="{7C8E92BC-0EDE-4BC1-9E24-45BAC6F3707E}" name="Parameter [Library strategy]"/>
-    <tableColumn id="7" xr3:uid="{5924AA9A-D9BE-4BBA-A28F-1A9AAAE1A527}" name="Term Source REF (NFDI4PSO:0000035)"/>
-    <tableColumn id="8" xr3:uid="{534AA0E3-E115-43FC-A9AC-959704E1BBA7}" name="Term Accession Number (NFDI4PSO:0000035)"/>
-    <tableColumn id="9" xr3:uid="{73F1E375-BAA4-499F-A4F0-253C5C1054EE}" name="Parameter [Library source]"/>
-    <tableColumn id="10" xr3:uid="{42963860-8EA0-4BEF-9E1F-A742CAA81E2B}" name="Term Source REF (NFDI4PSO:0000055)"/>
-    <tableColumn id="11" xr3:uid="{6E38EAE7-D136-4393-98CF-9BBE3F77E3DD}" name="Term Accession Number (NFDI4PSO:0000055)"/>
-    <tableColumn id="12" xr3:uid="{D03645CF-54A0-4DE8-960E-C0B5E15D55F8}" name="Parameter [Library Selection]"/>
-    <tableColumn id="13" xr3:uid="{67519CFF-88A6-4729-BCB3-C3236549F2DC}" name="Term Source REF (NFDI4PSO:0000036)"/>
-    <tableColumn id="14" xr3:uid="{7795308D-2FD0-45B5-A885-D5233395CFAB}" name="Term Accession Number (NFDI4PSO:0000036)"/>
-    <tableColumn id="15" xr3:uid="{40030436-4203-4099-98E9-47ECB56F8678}" name="Parameter [Library layout]"/>
-    <tableColumn id="16" xr3:uid="{8C880441-3891-4248-B1E3-197D1F308627}" name="Term Source REF (NFDI4PSO:0000015)"/>
-    <tableColumn id="17" xr3:uid="{309A9D57-E817-4AEC-8BCF-113274621470}" name="Term Accession Number (NFDI4PSO:0000015)"/>
-    <tableColumn id="18" xr3:uid="{57300CE0-8EC8-4AFC-9545-547DCE33D8F1}" name="Parameter [Library preparation kit]"/>
-    <tableColumn id="19" xr3:uid="{34847FC0-22D1-44D1-B9F3-940D2EA5A36D}" name="Term Source REF (NFDI4PSO:0000037)"/>
-    <tableColumn id="20" xr3:uid="{F7D5ABD4-0647-4065-AD5E-5791AF9510BF}" name="Term Accession Number (NFDI4PSO:0000037)"/>
-    <tableColumn id="21" xr3:uid="{89F82860-3250-4D30-843F-A46527F30414}" name="Parameter [Library preparation kit version]"/>
-    <tableColumn id="22" xr3:uid="{80B1809A-4412-474A-A7CB-F2815B920DF0}" name="Term Source REF (NFDI4PSO:0000038)"/>
-    <tableColumn id="23" xr3:uid="{CBF8909D-CD49-4B04-9371-A793DA1901BB}" name="Term Accession Number (NFDI4PSO:0000038)"/>
-    <tableColumn id="24" xr3:uid="{ABB9AC07-20E3-4A2C-92BC-46CCD7275609}" name="Parameter [Adapter sequence]"/>
-    <tableColumn id="25" xr3:uid="{35F4E9CF-60CF-421D-9705-7AB7F161EC55}" name="Term Source REF (NFDI4PSO:0000039)"/>
-    <tableColumn id="26" xr3:uid="{49456D9A-132F-4DA9-A448-4633FD3261F7}" name="Term Accession Number (NFDI4PSO:0000039)"/>
-    <tableColumn id="27" xr3:uid="{FCBE8FF5-22D7-441E-B78F-6FF342F600B3}" name="Parameter [Library DNA amount]" dataDxfId="22"/>
-    <tableColumn id="28" xr3:uid="{8BED45AB-AAE0-4E9C-8A1E-61DC2D2AC68C}" name="Unit" dataDxfId="21"/>
-    <tableColumn id="29" xr3:uid="{83BE4E1D-D24D-474D-8AB1-FE03ACA22DE3}" name="Term Source REF (NFDI4PSO:0000056)" dataDxfId="20"/>
-    <tableColumn id="30" xr3:uid="{08856AD0-B14E-4D2C-B8BA-61A4EB26EAA4}" name="Term Accession Number (NFDI4PSO:0000056)" dataDxfId="19"/>
-    <tableColumn id="31" xr3:uid="{F8E281CA-6C45-4860-B31A-B74B6F2D2C05}" name="Parameter [Next generation sequencing platform]" dataDxfId="18"/>
-    <tableColumn id="32" xr3:uid="{68D388DD-4C4B-43B6-A9D3-7C0FF90C1404}" name="Term Source REF (NFDI4PSO:0000057)" dataDxfId="17"/>
-    <tableColumn id="33" xr3:uid="{7442F4BA-B547-4ADD-8FDE-5DD40909CF12}" name="Term Accession Number (NFDI4PSO:0000057)" dataDxfId="16"/>
-    <tableColumn id="34" xr3:uid="{8D00D378-81E4-4E82-9C1B-010CF33E34A1}" name="Parameter [Next generation sequencing instrument model]" dataDxfId="15"/>
-    <tableColumn id="35" xr3:uid="{D10D84D6-F22C-4ED1-94DC-C0BBC79DA5F4}" name="Term Source REF (NFDI4PSO:0000040)" dataDxfId="14"/>
-    <tableColumn id="36" xr3:uid="{CCD28777-78D1-45D8-90AF-6DAAEFEDAFD6}" name="Term Accession Number (NFDI4PSO:0000040)" dataDxfId="13"/>
-    <tableColumn id="37" xr3:uid="{0C35D80D-C9D8-4D4A-ABE2-9653B88F4666}" name="Parameter [Base-calling Software]" dataDxfId="12"/>
-    <tableColumn id="38" xr3:uid="{7D3DB04A-21D7-4D4D-AAE3-2C930751B960}" name="Term Source REF (NFDI4PSO:0000017)" dataDxfId="11"/>
-    <tableColumn id="39" xr3:uid="{790D7DC9-F5CD-48B3-82D3-5C3B5D88ED12}" name="Term Accession Number (NFDI4PSO:0000017)" dataDxfId="10"/>
-    <tableColumn id="40" xr3:uid="{4C7E22BB-9ED4-4B6B-85A7-52F94D8C7DAA}" name="Parameter [Base-calling Software Version]" dataDxfId="9"/>
-    <tableColumn id="41" xr3:uid="{3C9B700D-355E-477C-A1D9-F2BF9425A5BD}" name="Term Source REF (NFDI4PSO:0000018)" dataDxfId="8"/>
-    <tableColumn id="42" xr3:uid="{BB4B522E-767B-4ED4-811C-3B7457FED44C}" name="Term Accession Number (NFDI4PSO:0000018)" dataDxfId="7"/>
-    <tableColumn id="43" xr3:uid="{2A5A523C-5976-4664-A5D1-405A5B5F0D57}" name="Parameter [Library strand]" dataDxfId="6"/>
-    <tableColumn id="44" xr3:uid="{FCD6DB6B-B4DA-4E48-AF78-A0DF61F32CAE}" name="Term Source REF (NFDI4PSO:0000020)" dataDxfId="5"/>
-    <tableColumn id="45" xr3:uid="{1D37086C-1CFE-4F19-A763-9E7DAD208983}" name="Term Accession Number (NFDI4PSO:0000020)" dataDxfId="4"/>
-    <tableColumn id="46" xr3:uid="{CCD853D2-EC9C-4E0A-8C7E-6777AB60CC13}" name="Parameter [Read length]" dataDxfId="3"/>
-    <tableColumn id="47" xr3:uid="{26DF8DAC-79A8-44E1-83C4-24E1E40A0BD9}" name="Term Source REF (NFDI4PSO:0000058)" dataDxfId="2"/>
-    <tableColumn id="48" xr3:uid="{D131D44C-A924-4874-88D0-DB9855B0EF01}" name="Term Accession Number (NFDI4PSO:0000058)" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{5C2F4335-27F7-48F4-B1A6-2D3D05A33A4C}" name="Raw Data File" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{1DC10BFC-C2A7-4D87-9F49-246A776A5293}" name="Parameter [BioSample Accession Number]"/>
+    <tableColumn id="4" xr3:uid="{5159415B-938B-47FA-839F-6CA2EF700251}" name="Term Source REF (NCIT:C175889)" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{C71C3AA1-4A01-42A2-A533-4D64B4EE4836}" name="Term Accession Number (NCIT:C175889)" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{DA69C6E1-D973-4100-9032-78C7EC5C0928}" name="Parameter [library strategy]" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{80F59932-EEE0-4D33-AA74-8409E2A63386}" name="Term Source REF (DPBO:0000035)" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{C26B54D1-4546-46EF-ABB1-3638C4574895}" name="Term Accession Number (DPBO:0000035)" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{739E0945-B070-4E64-B8DD-5290FA84F51A}" name="Parameter [library source]" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{E8DD4187-B447-4D36-85E9-CCA9AE10E4F7}" name="Term Source REF (GENEPIO:0001965)" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{F9AB4764-2B12-4C97-A3AC-E7B30CB37745}" name="Term Accession Number (GENEPIO:0001965)" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{F36AE902-A4E9-46F5-ADE2-63B20912CF73}" name="Parameter [library selection]" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{802E0EDA-8A39-4640-97A0-625FFD3415AA}" name="Term Source REF (DPBO:0000036)" dataDxfId="34"/>
+    <tableColumn id="14" xr3:uid="{FDFB390E-F93B-4191-A397-4649B9DF579C}" name="Term Accession Number (DPBO:0000036)" dataDxfId="33"/>
+    <tableColumn id="15" xr3:uid="{563FFA06-3130-4DC7-A3AC-E8C2790ED48C}" name="Parameter [library layout]" dataDxfId="32"/>
+    <tableColumn id="16" xr3:uid="{8657A2DB-D014-4977-BA57-3D79645792F4}" name="Term Source REF (DPBO:0000015)" dataDxfId="31"/>
+    <tableColumn id="17" xr3:uid="{E6A99575-346C-4E23-B818-36D6F3346FB4}" name="Term Accession Number (DPBO:0000015)" dataDxfId="30"/>
+    <tableColumn id="18" xr3:uid="{C644EBCD-1155-4204-B492-5C71003392C8}" name="Parameter [library preparation kit]" dataDxfId="29"/>
+    <tableColumn id="19" xr3:uid="{1B0936D6-0302-49DB-A23C-5CF8D7DC20B0}" name="Term Source REF (GENEPIO:0000085)" dataDxfId="28"/>
+    <tableColumn id="20" xr3:uid="{0DC3D038-FFC8-44B7-84D5-693612C52DF7}" name="Term Accession Number (GENEPIO:0000085)" dataDxfId="27"/>
+    <tableColumn id="21" xr3:uid="{B9EC8CC5-EAD0-4793-96E6-01AB2E1A119C}" name="Parameter [library preparation kit version]" dataDxfId="26"/>
+    <tableColumn id="22" xr3:uid="{3F91749D-54B5-4D0F-9FE7-63CFADCD70E6}" name="Term Source REF (GENEPIO:0000149)" dataDxfId="25"/>
+    <tableColumn id="23" xr3:uid="{BFAD6604-5470-4B0F-A7F0-729C8195C64A}" name="Term Accession Number (GENEPIO:0000149)" dataDxfId="24"/>
+    <tableColumn id="24" xr3:uid="{FF45F135-1A4B-4CDB-B2A5-58C08EE361BA}" name="Parameter [adapter sequence]" dataDxfId="23"/>
+    <tableColumn id="25" xr3:uid="{5BF5735B-7CB0-4BC2-8951-11F4F7C1B555}" name="Term Source REF (GENEPIO:0000083)" dataDxfId="22"/>
+    <tableColumn id="26" xr3:uid="{6EC5E694-BB26-48A2-BDEE-CA32B632C0B8}" name="Term Accession Number (GENEPIO:0000083)" dataDxfId="21"/>
+    <tableColumn id="27" xr3:uid="{CAA30BEA-4952-4E43-9277-8A33FAD57CFF}" name="Parameter [library DNA amount]" dataDxfId="20"/>
+    <tableColumn id="28" xr3:uid="{B15CDF29-BAA7-45D4-8E8A-02A4F71923DF}" name="Term Source REF (DPBO:0000056)" dataDxfId="19"/>
+    <tableColumn id="29" xr3:uid="{6FBC97F7-35E9-4C8E-A9D2-2AFB58C3F2F6}" name="Term Accession Number (DPBO:0000056)" dataDxfId="18"/>
+    <tableColumn id="30" xr3:uid="{8D2E8C5B-BF96-46C3-A177-CEC198E60FEB}" name="Parameter [next generation sequencing platform]" dataDxfId="17"/>
+    <tableColumn id="31" xr3:uid="{FDFF9194-349E-414C-8408-EFC166184292}" name="Term Source REF (DPBO:0000057)" dataDxfId="16"/>
+    <tableColumn id="32" xr3:uid="{EB03DE23-BE82-4B54-938F-81E14B612A42}" name="Term Accession Number (DPBO:0000057)" dataDxfId="15"/>
+    <tableColumn id="33" xr3:uid="{7A6A469B-B77E-4B9C-9DE5-0BEC1EAF30B8}" name="Parameter [next generation sequencing instrument model]" dataDxfId="14"/>
+    <tableColumn id="34" xr3:uid="{DE0CEF6D-1A78-4C0C-B7B1-571386E1DA7C}" name="Term Source REF (DPBO:0000040)" dataDxfId="13"/>
+    <tableColumn id="35" xr3:uid="{4AC874AC-F639-4810-BACD-5D034FEF2889}" name="Term Accession Number (DPBO:0000040)" dataDxfId="12"/>
+    <tableColumn id="36" xr3:uid="{046BE31B-9C08-46A8-AA1D-C9451A684CE9}" name="Parameter [base-calling software]" dataDxfId="11"/>
+    <tableColumn id="37" xr3:uid="{FFE4E8DD-D939-4360-92BA-EDA716D58C86}" name="Term Source REF (DPBO:0000017)" dataDxfId="10"/>
+    <tableColumn id="38" xr3:uid="{75B8C6CF-3193-43A8-8B85-BC4A73494FD5}" name="Term Accession Number (DPBO:0000017)" dataDxfId="9"/>
+    <tableColumn id="39" xr3:uid="{B1E1BD79-2F81-4EE2-9065-1F5A2CAED41B}" name="Parameter [base-calling software version]" dataDxfId="8"/>
+    <tableColumn id="40" xr3:uid="{26B7994D-C7E8-4734-9179-7B9183F29712}" name="Term Source REF (DPBO:0000018)" dataDxfId="7"/>
+    <tableColumn id="41" xr3:uid="{943A45E9-EFDA-44A0-A236-A0F99DA4C80A}" name="Term Accession Number (DPBO:0000018)" dataDxfId="6"/>
+    <tableColumn id="42" xr3:uid="{BE847985-C364-4A4E-AD54-27FEE5546586}" name="Parameter [library strand]" dataDxfId="5"/>
+    <tableColumn id="43" xr3:uid="{CA60E96E-E0F9-4D2A-B37F-A8EBF11A86FE}" name="Term Source REF (DPBO:0000020)" dataDxfId="4"/>
+    <tableColumn id="44" xr3:uid="{D517FBEC-117E-4096-B394-DEA3930E747A}" name="Term Accession Number (DPBO:0000020)" dataDxfId="3"/>
+    <tableColumn id="45" xr3:uid="{C839C9E2-9123-4F1A-992A-369C733D4FE8}" name="Parameter [read length]" dataDxfId="2"/>
+    <tableColumn id="46" xr3:uid="{03B9F48D-FA6C-4BE6-8041-FE11ED70064A}" name="Term Source REF (GENEPIO:0000076)" dataDxfId="1"/>
+    <tableColumn id="47" xr3:uid="{FB1E9D20-1BFC-4E32-A50F-FC2C9D0C0D9F}" name="Term Accession Number (GENEPIO:0000076)" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{5C2F4335-27F7-48F4-B1A6-2D3D05A33A4C}" name="Raw Data File" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1330,7 +1444,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="511" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="806" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="612" row="2">
@@ -1361,65 +1475,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV6"/>
+  <dimension ref="A1:AU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AS2" sqref="AS2"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="42" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="41.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="41" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.5546875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="41" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.5546875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="41" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.5546875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="41" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="53.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="31.6640625" style="14" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="34.5546875" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="41" hidden="1" customWidth="1"/>
+    <col min="47" max="48" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1427,483 +1540,820 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="X1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="Y1" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="Z1" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="AA1" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="AB1" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="AC1" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="AF1" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="AG1" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="AH1" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="AI1" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="AJ1" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="AK1" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="14" t="s">
-        <v>38</v>
+        <v>155</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>156</v>
       </c>
       <c r="AN1" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="AO1" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AP1" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AQ1" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="AR1" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="AS1" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="AT1" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="AU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N2" t="s">
-        <v>171</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="AJ2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU2" s="14"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU3" s="14"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
         <v>98</v>
       </c>
-      <c r="P2" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>160</v>
-      </c>
-      <c r="R2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S2" t="s">
-        <v>106</v>
-      </c>
-      <c r="W2" t="s">
-        <v>161</v>
-      </c>
-      <c r="X2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM2" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="14"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" t="s">
-        <v>159</v>
-      </c>
-      <c r="O3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P3" t="s">
-        <v>106</v>
-      </c>
-      <c r="W3" t="s">
-        <v>162</v>
-      </c>
-      <c r="X3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="14"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4" t="s">
-        <v>106</v>
-      </c>
-      <c r="M4" t="s">
-        <v>106</v>
+      <c r="L4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="W4" t="s">
-        <v>163</v>
-      </c>
-      <c r="X4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="14"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I5" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="14"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>155</v>
-      </c>
-      <c r="I6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="14"/>
+        <v>103</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU4" s="14"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU5" s="14"/>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU6" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1918,244 +2368,244 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2171,80 +2621,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -2253,24 +2705,24 @@
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -2279,436 +2731,436 @@
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>101</v>
+        <v>166</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>105</v>
+        <v>166</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>106</v>
+        <v>166</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>193</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>108</v>
+        <v>167</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>192</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>110</v>
+        <v>167</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>191</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>112</v>
+        <v>167</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>190</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>114</v>
+        <v>166</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>116</v>
+        <v>166</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>188</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>118</v>
+        <v>166</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="E14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>144</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>120</v>
+        <v>166</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>122</v>
+        <v>166</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>127</v>
+        <v>166</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -2717,24 +3169,24 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>129</v>
+        <v>167</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -2743,27 +3195,27 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -2771,27 +3223,27 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>132</v>
+        <v>66</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -2800,6 +3252,22 @@
       <c r="L21" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{4FF2CF16-4E12-4F1E-99A6-2D0FE1D60455}"/>
+    <hyperlink ref="D21" r:id="rId2" xr:uid="{EA6097F2-B917-4F77-8B7B-66DEF806ED8A}"/>
+    <hyperlink ref="D19" r:id="rId3" xr:uid="{4662AFF2-2E9E-4EC0-B6A7-E29549D96297}"/>
+    <hyperlink ref="D18" r:id="rId4" xr:uid="{3157E062-98A0-4B88-8679-A1889C601149}"/>
+    <hyperlink ref="D16" r:id="rId5" xr:uid="{CF9BD664-194F-42F4-A29C-5E2774379A1F}"/>
+    <hyperlink ref="D15" r:id="rId6" xr:uid="{1A483073-4DEF-456B-8C27-87A597778678}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{D40502DA-B91F-4C1A-840E-F8587E36036F}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{A4E4AC3A-2B8B-44FA-96CE-1E4D4C398EEF}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{B51F4164-5D1A-4410-AD7B-DE86C9444E66}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{30CAFEAE-BE71-45B1-A9F7-03F5A59612CA}"/>
+    <hyperlink ref="D10" r:id="rId11" xr:uid="{E5C072FB-1E44-472A-9937-EFA55F7281A6}"/>
+    <hyperlink ref="D9" r:id="rId12" xr:uid="{84B8299F-A4E8-440C-A1B7-0AFF48500D3C}"/>
+    <hyperlink ref="D8" r:id="rId13" xr:uid="{FC453493-CE6C-45D3-9074-C4435749A569}"/>
+    <hyperlink ref="D7" r:id="rId14" xr:uid="{CDE71D23-BB4D-4240-97F6-3CEE9825ABC9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/templates/dataplant/3ASY04_Genomics.xlsx
+++ b/templates/dataplant/3ASY04_Genomics.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\sciebo - Eggels, Stella (s.eggels@fz-juelich.de)@fz-juelich.sciebo.de\SE\DataPLANT\ARCs und SWATE\ersatz von nfdi4pso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CF0541-60D1-44A1-8262-E0F3C06F096B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD022692-8D77-4EB7-BC1E-5C6C6F8FA3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-96" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY04_Genomics" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
     <sheet name="SRA_GENOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="193">
   <si>
     <t>Source Name</t>
   </si>
@@ -260,12 +260,6 @@
   </si>
   <si>
     <t>annotationTableTameZebra23</t>
-  </si>
-  <si>
-    <t>SRA</t>
-  </si>
-  <si>
-    <t>GENBANK</t>
   </si>
   <si>
     <t>Genomics</t>
@@ -936,139 +930,139 @@
   </cellStyles>
   <dxfs count="45">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1096,51 +1090,51 @@
   <tableColumns count="47">
     <tableColumn id="1" xr3:uid="{A3E10627-AC92-48CC-BD94-286CB920EDC2}" name="Source Name"/>
     <tableColumn id="3" xr3:uid="{1DC10BFC-C2A7-4D87-9F49-246A776A5293}" name="Parameter [BioSample Accession Number]"/>
-    <tableColumn id="4" xr3:uid="{5159415B-938B-47FA-839F-6CA2EF700251}" name="Term Source REF (NCIT:C175889)" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{C71C3AA1-4A01-42A2-A533-4D64B4EE4836}" name="Term Accession Number (NCIT:C175889)" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{DA69C6E1-D973-4100-9032-78C7EC5C0928}" name="Parameter [library strategy]" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{80F59932-EEE0-4D33-AA74-8409E2A63386}" name="Term Source REF (DPBO:0000035)" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{C26B54D1-4546-46EF-ABB1-3638C4574895}" name="Term Accession Number (DPBO:0000035)" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{739E0945-B070-4E64-B8DD-5290FA84F51A}" name="Parameter [library source]" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{E8DD4187-B447-4D36-85E9-CCA9AE10E4F7}" name="Term Source REF (GENEPIO:0001965)" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{F9AB4764-2B12-4C97-A3AC-E7B30CB37745}" name="Term Accession Number (GENEPIO:0001965)" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{F36AE902-A4E9-46F5-ADE2-63B20912CF73}" name="Parameter [library selection]" dataDxfId="35"/>
-    <tableColumn id="13" xr3:uid="{802E0EDA-8A39-4640-97A0-625FFD3415AA}" name="Term Source REF (DPBO:0000036)" dataDxfId="34"/>
-    <tableColumn id="14" xr3:uid="{FDFB390E-F93B-4191-A397-4649B9DF579C}" name="Term Accession Number (DPBO:0000036)" dataDxfId="33"/>
-    <tableColumn id="15" xr3:uid="{563FFA06-3130-4DC7-A3AC-E8C2790ED48C}" name="Parameter [library layout]" dataDxfId="32"/>
-    <tableColumn id="16" xr3:uid="{8657A2DB-D014-4977-BA57-3D79645792F4}" name="Term Source REF (DPBO:0000015)" dataDxfId="31"/>
-    <tableColumn id="17" xr3:uid="{E6A99575-346C-4E23-B818-36D6F3346FB4}" name="Term Accession Number (DPBO:0000015)" dataDxfId="30"/>
-    <tableColumn id="18" xr3:uid="{C644EBCD-1155-4204-B492-5C71003392C8}" name="Parameter [library preparation kit]" dataDxfId="29"/>
-    <tableColumn id="19" xr3:uid="{1B0936D6-0302-49DB-A23C-5CF8D7DC20B0}" name="Term Source REF (GENEPIO:0000085)" dataDxfId="28"/>
-    <tableColumn id="20" xr3:uid="{0DC3D038-FFC8-44B7-84D5-693612C52DF7}" name="Term Accession Number (GENEPIO:0000085)" dataDxfId="27"/>
-    <tableColumn id="21" xr3:uid="{B9EC8CC5-EAD0-4793-96E6-01AB2E1A119C}" name="Parameter [library preparation kit version]" dataDxfId="26"/>
-    <tableColumn id="22" xr3:uid="{3F91749D-54B5-4D0F-9FE7-63CFADCD70E6}" name="Term Source REF (GENEPIO:0000149)" dataDxfId="25"/>
-    <tableColumn id="23" xr3:uid="{BFAD6604-5470-4B0F-A7F0-729C8195C64A}" name="Term Accession Number (GENEPIO:0000149)" dataDxfId="24"/>
-    <tableColumn id="24" xr3:uid="{FF45F135-1A4B-4CDB-B2A5-58C08EE361BA}" name="Parameter [adapter sequence]" dataDxfId="23"/>
-    <tableColumn id="25" xr3:uid="{5BF5735B-7CB0-4BC2-8951-11F4F7C1B555}" name="Term Source REF (GENEPIO:0000083)" dataDxfId="22"/>
-    <tableColumn id="26" xr3:uid="{6EC5E694-BB26-48A2-BDEE-CA32B632C0B8}" name="Term Accession Number (GENEPIO:0000083)" dataDxfId="21"/>
-    <tableColumn id="27" xr3:uid="{CAA30BEA-4952-4E43-9277-8A33FAD57CFF}" name="Parameter [library DNA amount]" dataDxfId="20"/>
-    <tableColumn id="28" xr3:uid="{B15CDF29-BAA7-45D4-8E8A-02A4F71923DF}" name="Term Source REF (DPBO:0000056)" dataDxfId="19"/>
-    <tableColumn id="29" xr3:uid="{6FBC97F7-35E9-4C8E-A9D2-2AFB58C3F2F6}" name="Term Accession Number (DPBO:0000056)" dataDxfId="18"/>
-    <tableColumn id="30" xr3:uid="{8D2E8C5B-BF96-46C3-A177-CEC198E60FEB}" name="Parameter [next generation sequencing platform]" dataDxfId="17"/>
-    <tableColumn id="31" xr3:uid="{FDFF9194-349E-414C-8408-EFC166184292}" name="Term Source REF (DPBO:0000057)" dataDxfId="16"/>
-    <tableColumn id="32" xr3:uid="{EB03DE23-BE82-4B54-938F-81E14B612A42}" name="Term Accession Number (DPBO:0000057)" dataDxfId="15"/>
-    <tableColumn id="33" xr3:uid="{7A6A469B-B77E-4B9C-9DE5-0BEC1EAF30B8}" name="Parameter [next generation sequencing instrument model]" dataDxfId="14"/>
-    <tableColumn id="34" xr3:uid="{DE0CEF6D-1A78-4C0C-B7B1-571386E1DA7C}" name="Term Source REF (DPBO:0000040)" dataDxfId="13"/>
-    <tableColumn id="35" xr3:uid="{4AC874AC-F639-4810-BACD-5D034FEF2889}" name="Term Accession Number (DPBO:0000040)" dataDxfId="12"/>
-    <tableColumn id="36" xr3:uid="{046BE31B-9C08-46A8-AA1D-C9451A684CE9}" name="Parameter [base-calling software]" dataDxfId="11"/>
-    <tableColumn id="37" xr3:uid="{FFE4E8DD-D939-4360-92BA-EDA716D58C86}" name="Term Source REF (DPBO:0000017)" dataDxfId="10"/>
-    <tableColumn id="38" xr3:uid="{75B8C6CF-3193-43A8-8B85-BC4A73494FD5}" name="Term Accession Number (DPBO:0000017)" dataDxfId="9"/>
-    <tableColumn id="39" xr3:uid="{B1E1BD79-2F81-4EE2-9065-1F5A2CAED41B}" name="Parameter [base-calling software version]" dataDxfId="8"/>
-    <tableColumn id="40" xr3:uid="{26B7994D-C7E8-4734-9179-7B9183F29712}" name="Term Source REF (DPBO:0000018)" dataDxfId="7"/>
-    <tableColumn id="41" xr3:uid="{943A45E9-EFDA-44A0-A236-A0F99DA4C80A}" name="Term Accession Number (DPBO:0000018)" dataDxfId="6"/>
-    <tableColumn id="42" xr3:uid="{BE847985-C364-4A4E-AD54-27FEE5546586}" name="Parameter [library strand]" dataDxfId="5"/>
-    <tableColumn id="43" xr3:uid="{CA60E96E-E0F9-4D2A-B37F-A8EBF11A86FE}" name="Term Source REF (DPBO:0000020)" dataDxfId="4"/>
-    <tableColumn id="44" xr3:uid="{D517FBEC-117E-4096-B394-DEA3930E747A}" name="Term Accession Number (DPBO:0000020)" dataDxfId="3"/>
-    <tableColumn id="45" xr3:uid="{C839C9E2-9123-4F1A-992A-369C733D4FE8}" name="Parameter [read length]" dataDxfId="2"/>
-    <tableColumn id="46" xr3:uid="{03B9F48D-FA6C-4BE6-8041-FE11ED70064A}" name="Term Source REF (GENEPIO:0000076)" dataDxfId="1"/>
-    <tableColumn id="47" xr3:uid="{FB1E9D20-1BFC-4E32-A50F-FC2C9D0C0D9F}" name="Term Accession Number (GENEPIO:0000076)" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{5C2F4335-27F7-48F4-B1A6-2D3D05A33A4C}" name="Raw Data File" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{5159415B-938B-47FA-839F-6CA2EF700251}" name="Term Source REF (NCIT:C175889)" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{C71C3AA1-4A01-42A2-A533-4D64B4EE4836}" name="Term Accession Number (NCIT:C175889)" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{DA69C6E1-D973-4100-9032-78C7EC5C0928}" name="Parameter [library strategy]" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{80F59932-EEE0-4D33-AA74-8409E2A63386}" name="Term Source REF (DPBO:0000035)" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{C26B54D1-4546-46EF-ABB1-3638C4574895}" name="Term Accession Number (DPBO:0000035)" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{739E0945-B070-4E64-B8DD-5290FA84F51A}" name="Parameter [library source]" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{E8DD4187-B447-4D36-85E9-CCA9AE10E4F7}" name="Term Source REF (GENEPIO:0001965)" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{F9AB4764-2B12-4C97-A3AC-E7B30CB37745}" name="Term Accession Number (GENEPIO:0001965)" dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{F36AE902-A4E9-46F5-ADE2-63B20912CF73}" name="Parameter [library selection]" dataDxfId="36"/>
+    <tableColumn id="13" xr3:uid="{802E0EDA-8A39-4640-97A0-625FFD3415AA}" name="Term Source REF (DPBO:0000036)" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{FDFB390E-F93B-4191-A397-4649B9DF579C}" name="Term Accession Number (DPBO:0000036)" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{563FFA06-3130-4DC7-A3AC-E8C2790ED48C}" name="Parameter [library layout]" dataDxfId="33"/>
+    <tableColumn id="16" xr3:uid="{8657A2DB-D014-4977-BA57-3D79645792F4}" name="Term Source REF (DPBO:0000015)" dataDxfId="32"/>
+    <tableColumn id="17" xr3:uid="{E6A99575-346C-4E23-B818-36D6F3346FB4}" name="Term Accession Number (DPBO:0000015)" dataDxfId="31"/>
+    <tableColumn id="18" xr3:uid="{C644EBCD-1155-4204-B492-5C71003392C8}" name="Parameter [library preparation kit]" dataDxfId="30"/>
+    <tableColumn id="19" xr3:uid="{1B0936D6-0302-49DB-A23C-5CF8D7DC20B0}" name="Term Source REF (GENEPIO:0000085)" dataDxfId="29"/>
+    <tableColumn id="20" xr3:uid="{0DC3D038-FFC8-44B7-84D5-693612C52DF7}" name="Term Accession Number (GENEPIO:0000085)" dataDxfId="28"/>
+    <tableColumn id="21" xr3:uid="{B9EC8CC5-EAD0-4793-96E6-01AB2E1A119C}" name="Parameter [library preparation kit version]" dataDxfId="27"/>
+    <tableColumn id="22" xr3:uid="{3F91749D-54B5-4D0F-9FE7-63CFADCD70E6}" name="Term Source REF (GENEPIO:0000149)" dataDxfId="26"/>
+    <tableColumn id="23" xr3:uid="{BFAD6604-5470-4B0F-A7F0-729C8195C64A}" name="Term Accession Number (GENEPIO:0000149)" dataDxfId="25"/>
+    <tableColumn id="24" xr3:uid="{FF45F135-1A4B-4CDB-B2A5-58C08EE361BA}" name="Parameter [adapter sequence]" dataDxfId="24"/>
+    <tableColumn id="25" xr3:uid="{5BF5735B-7CB0-4BC2-8951-11F4F7C1B555}" name="Term Source REF (GENEPIO:0000083)" dataDxfId="23"/>
+    <tableColumn id="26" xr3:uid="{6EC5E694-BB26-48A2-BDEE-CA32B632C0B8}" name="Term Accession Number (GENEPIO:0000083)" dataDxfId="22"/>
+    <tableColumn id="27" xr3:uid="{CAA30BEA-4952-4E43-9277-8A33FAD57CFF}" name="Parameter [library DNA amount]" dataDxfId="21"/>
+    <tableColumn id="28" xr3:uid="{B15CDF29-BAA7-45D4-8E8A-02A4F71923DF}" name="Term Source REF (DPBO:0000056)" dataDxfId="20"/>
+    <tableColumn id="29" xr3:uid="{6FBC97F7-35E9-4C8E-A9D2-2AFB58C3F2F6}" name="Term Accession Number (DPBO:0000056)" dataDxfId="19"/>
+    <tableColumn id="30" xr3:uid="{8D2E8C5B-BF96-46C3-A177-CEC198E60FEB}" name="Parameter [next generation sequencing platform]" dataDxfId="18"/>
+    <tableColumn id="31" xr3:uid="{FDFF9194-349E-414C-8408-EFC166184292}" name="Term Source REF (DPBO:0000057)" dataDxfId="17"/>
+    <tableColumn id="32" xr3:uid="{EB03DE23-BE82-4B54-938F-81E14B612A42}" name="Term Accession Number (DPBO:0000057)" dataDxfId="16"/>
+    <tableColumn id="33" xr3:uid="{7A6A469B-B77E-4B9C-9DE5-0BEC1EAF30B8}" name="Parameter [next generation sequencing instrument model]" dataDxfId="15"/>
+    <tableColumn id="34" xr3:uid="{DE0CEF6D-1A78-4C0C-B7B1-571386E1DA7C}" name="Term Source REF (DPBO:0000040)" dataDxfId="14"/>
+    <tableColumn id="35" xr3:uid="{4AC874AC-F639-4810-BACD-5D034FEF2889}" name="Term Accession Number (DPBO:0000040)" dataDxfId="13"/>
+    <tableColumn id="36" xr3:uid="{046BE31B-9C08-46A8-AA1D-C9451A684CE9}" name="Parameter [base-calling software]" dataDxfId="12"/>
+    <tableColumn id="37" xr3:uid="{FFE4E8DD-D939-4360-92BA-EDA716D58C86}" name="Term Source REF (DPBO:0000017)" dataDxfId="11"/>
+    <tableColumn id="38" xr3:uid="{75B8C6CF-3193-43A8-8B85-BC4A73494FD5}" name="Term Accession Number (DPBO:0000017)" dataDxfId="10"/>
+    <tableColumn id="39" xr3:uid="{B1E1BD79-2F81-4EE2-9065-1F5A2CAED41B}" name="Parameter [base-calling software version]" dataDxfId="9"/>
+    <tableColumn id="40" xr3:uid="{26B7994D-C7E8-4734-9179-7B9183F29712}" name="Term Source REF (DPBO:0000018)" dataDxfId="8"/>
+    <tableColumn id="41" xr3:uid="{943A45E9-EFDA-44A0-A236-A0F99DA4C80A}" name="Term Accession Number (DPBO:0000018)" dataDxfId="7"/>
+    <tableColumn id="42" xr3:uid="{BE847985-C364-4A4E-AD54-27FEE5546586}" name="Parameter [library strand]" dataDxfId="6"/>
+    <tableColumn id="43" xr3:uid="{CA60E96E-E0F9-4D2A-B37F-A8EBF11A86FE}" name="Term Source REF (DPBO:0000020)" dataDxfId="5"/>
+    <tableColumn id="44" xr3:uid="{D517FBEC-117E-4096-B394-DEA3930E747A}" name="Term Accession Number (DPBO:0000020)" dataDxfId="4"/>
+    <tableColumn id="45" xr3:uid="{C839C9E2-9123-4F1A-992A-369C733D4FE8}" name="Parameter [read length]" dataDxfId="3"/>
+    <tableColumn id="46" xr3:uid="{03B9F48D-FA6C-4BE6-8041-FE11ED70064A}" name="Term Source REF (GENEPIO:0000076)" dataDxfId="2"/>
+    <tableColumn id="47" xr3:uid="{FB1E9D20-1BFC-4E32-A50F-FC2C9D0C0D9F}" name="Term Accession Number (GENEPIO:0000076)" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5C2F4335-27F7-48F4-B1A6-2D3D05A33A4C}" name="Raw Data File" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1477,7 +1471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
@@ -1540,818 +1534,818 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>118</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>119</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>120</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>121</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>122</v>
       </c>
-      <c r="I1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" t="s">
-        <v>124</v>
-      </c>
       <c r="K1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" t="s">
         <v>128</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>129</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>130</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>131</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>132</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>133</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>134</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>135</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>136</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>137</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>138</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>139</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>140</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>143</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>144</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>145</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>146</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>147</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>148</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>149</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>150</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>151</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>152</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>153</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>154</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>155</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>156</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>157</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>158</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>159</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>160</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>161</v>
       </c>
-      <c r="AS1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>163</v>
-      </c>
       <c r="AU1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="X2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Z2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI2" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="AD2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AJ2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AG2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="AM2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AN2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AO2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AP2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AQ2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AR2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AS2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AT2" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AU2" s="14"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" t="s">
-        <v>99</v>
-      </c>
       <c r="O3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="X3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Z3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AC3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AD3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AF3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AG3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AH3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AI3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AJ3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AK3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AN3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AO3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AP3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AQ3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AR3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AS3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AT3" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AU3" s="14"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Z4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AC4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AD4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AF4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AG4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AH4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AI4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AJ4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AK4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AM4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AN4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AO4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AP4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AQ4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AR4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AS4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AT4" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AU4" s="14"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Z5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AC5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AD5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AF5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AG5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AH5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AI5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AJ5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AK5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AL5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AN5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AO5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AP5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AQ5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AR5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AS5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AT5" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AU5" s="14"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B6" s="14"/>
       <c r="C6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Z6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AD6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AF6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AH6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AI6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AJ6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AK6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AL6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AM6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AN6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AO6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AP6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AQ6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AR6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AS6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AT6" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AU6" s="14"/>
     </row>
@@ -2367,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AB16AD-341F-4BC5-B464-1FD6D565AEE8}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2398,7 +2392,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2414,7 +2408,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2437,12 +2431,8 @@
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2474,13 +2464,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2512,10 +2502,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -2524,10 +2514,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7"/>
     </row>
@@ -2581,7 +2571,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2589,7 +2579,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2597,7 +2587,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2605,7 +2595,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2643,40 +2633,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2684,19 +2674,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -2707,22 +2697,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -2736,28 +2726,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -2768,27 +2758,27 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -2798,27 +2788,27 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -2828,27 +2818,27 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -2858,26 +2848,26 @@
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -2888,29 +2878,29 @@
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2918,24 +2908,24 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -2946,24 +2936,24 @@
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
@@ -2974,24 +2964,24 @@
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -3002,26 +2992,26 @@
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -3032,26 +3022,26 @@
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
@@ -3062,29 +3052,29 @@
         <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -3092,24 +3082,24 @@
         <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
@@ -3117,27 +3107,27 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>69</v>
-      </c>
       <c r="E17" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -3148,19 +3138,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -3174,19 +3164,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -3200,22 +3190,22 @@
         <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -3225,25 +3215,25 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>72</v>
-      </c>
       <c r="E21" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>

--- a/templates/dataplant/3ASY04_Genomics.xlsx
+++ b/templates/dataplant/3ASY04_Genomics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD022692-8D77-4EB7-BC1E-5C6C6F8FA3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C771A5-1A0C-4DF0-A0D5-095846FDF66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24864" yWindow="1032" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY04_Genomics" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="194">
   <si>
     <t>Source Name</t>
   </si>
@@ -268,9 +268,6 @@
     <t>DNASeq</t>
   </si>
   <si>
-    <t>Assay</t>
-  </si>
-  <si>
     <t>Kranz</t>
   </si>
   <si>
@@ -707,6 +704,12 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/DPBO_0000036</t>
+  </si>
+  <si>
+    <t>assay</t>
+  </si>
+  <si>
+    <t>OBI:0000070</t>
   </si>
 </sst>
 </file>
@@ -1534,818 +1537,818 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>118</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>119</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>120</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>121</v>
       </c>
-      <c r="J1" t="s">
-        <v>122</v>
-      </c>
       <c r="K1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" t="s">
         <v>126</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>127</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>128</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>129</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>130</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>132</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>133</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>134</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>135</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>136</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>137</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>138</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>139</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>140</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>141</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>142</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>143</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>144</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>145</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>146</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>147</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>148</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>149</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>150</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>151</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>152</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>153</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>154</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>155</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>156</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>157</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>158</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>159</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>160</v>
       </c>
-      <c r="AT1" t="s">
-        <v>161</v>
-      </c>
       <c r="AU1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B2" s="14"/>
       <c r="C2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" t="s">
-        <v>99</v>
-      </c>
       <c r="X2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AD2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="AG2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AJ2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AJ2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="AM2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AO2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AP2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AR2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AS2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AT2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU2" s="14"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AJ3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AK3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AM3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AO3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AP3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AR3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AS3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AT3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU3" s="14"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AJ4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AK4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AM4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AO4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AP4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AR4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AS4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AT4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU4" s="14"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AJ5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AK5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AM5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AO5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AP5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AR5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AS5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AT5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU5" s="14"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="B6" s="14"/>
       <c r="C6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AI6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AJ6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AK6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AM6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AO6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AP6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AQ6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AR6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AS6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AT6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AU6" s="14"/>
     </row>
@@ -2362,7 +2365,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2392,7 +2395,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -2408,7 +2411,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2470,16 +2473,18 @@
         <v>45</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -2502,10 +2507,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -2514,10 +2519,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="D17" s="7"/>
     </row>
@@ -2571,7 +2576,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2579,7 +2584,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2587,7 +2592,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2595,7 +2600,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2633,40 +2638,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2674,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -2697,22 +2702,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -2726,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
@@ -2758,27 +2763,27 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -2788,27 +2793,27 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -2818,27 +2823,27 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -2848,26 +2853,26 @@
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -2878,29 +2883,29 @@
         <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -2908,24 +2913,24 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -2936,24 +2941,24 @@
         <v>8</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
@@ -2964,24 +2969,24 @@
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -2992,26 +2997,26 @@
         <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -3022,26 +3027,26 @@
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
@@ -3052,29 +3057,29 @@
         <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -3082,24 +3087,24 @@
         <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
@@ -3107,27 +3112,27 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="E17" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -3138,19 +3143,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -3164,19 +3169,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>181</v>
-      </c>
       <c r="E19" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
@@ -3190,22 +3195,22 @@
         <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -3215,25 +3220,25 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="E21" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
